--- a/documentacao/BurnDown/01_burndownPrimeiroSprint.xlsx
+++ b/documentacao/BurnDown/01_burndownPrimeiroSprint.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vinicius Piantoni\TCC\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TCC\documentacao\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B94876D-6950-43EC-8564-012AD5672C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Restante">OFFSET(Planilha1!$B$12,0,0,1,COUNT(Planilha1!$B$12:$V$12))</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Atividade 10</t>
   </si>
@@ -132,28 +133,13 @@
   </si>
   <si>
     <t>Tela de com</t>
-  </si>
-  <si>
-    <t>Tela de configurações</t>
-  </si>
-  <si>
-    <t>Conexão com mobile(websocket)</t>
-  </si>
-  <si>
-    <t>Websocket backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total de horas</t>
-  </si>
-  <si>
-    <t>Documentação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,24 +169,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,7 +186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4B72"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,24 +224,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,7 +300,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -860,7 +832,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -891,7 +862,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -899,461 +869,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Burn down  chart segundo Sprint</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Restante</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$B$31:$V$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC9F-4472-80B2-0D63761F4D53}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$B$32:$V$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AC9F-4472-80B2-0D63761F4D53}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1011559439"/>
-        <c:axId val="1011553615"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1011559439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1011553615"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1011553615"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1011559439"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1440,46 +955,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -1976,523 +1451,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>129770</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>70758</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>822498</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>105395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>369094</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>218396</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22731</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5B414F-4C84-4E68-9DB7-C948CA0E3FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,36 +1484,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>164306</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>50006</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2839,16 +1788,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -2867,72 +1816,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1">
@@ -3000,7 +1950,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1">
@@ -3068,7 +2018,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1">
@@ -3136,7 +2086,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1">
@@ -3204,7 +2154,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1">
@@ -3272,7 +2222,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1">
@@ -3340,7 +2290,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
@@ -3408,7 +2358,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1">
@@ -3476,7 +2426,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1">
@@ -3544,7 +2494,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1">
@@ -3612,7 +2562,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1">
@@ -3701,7 +2651,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1">
@@ -3786,541 +2736,6 @@
       </c>
       <c r="V13" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-    </row>
-    <row r="20" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-    </row>
-    <row r="21" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-    </row>
-    <row r="22" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-    </row>
-    <row r="23" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-    </row>
-    <row r="24" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="4">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-    </row>
-    <row r="25" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-    </row>
-    <row r="26" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-    </row>
-    <row r="27" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="4">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-    </row>
-    <row r="28" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="4">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-    </row>
-    <row r="29" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="4">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-    </row>
-    <row r="30" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="4">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-    </row>
-    <row r="31" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="4">
-        <f>SUM(B19:B30)</f>
-        <v>70</v>
-      </c>
-      <c r="C31" s="4" t="str">
-        <f>IF(SUM(C19:C30)&gt;0,B31-SUM(C19:C30),"")</f>
-        <v/>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-    </row>
-    <row r="32" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="4">
-        <f>B31</f>
-        <v>70</v>
-      </c>
-      <c r="C32" s="4">
-        <f>B32-($B$32/COUNTA($C$1:$V$1))</f>
-        <v>66.5</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" ref="D32:V32" si="9">C32-($B$32/COUNTA($C$1:$V$1))</f>
-        <v>63</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="9"/>
-        <v>59.5</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="9"/>
-        <v>52.5</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="9"/>
-        <v>45.5</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="9"/>
-        <v>38.5</v>
-      </c>
-      <c r="L32" s="4">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="M32" s="4">
-        <f t="shared" si="9"/>
-        <v>31.5</v>
-      </c>
-      <c r="N32" s="4">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="O32" s="4">
-        <f t="shared" si="9"/>
-        <v>24.5</v>
-      </c>
-      <c r="P32" s="4">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="9"/>
-        <v>17.5</v>
-      </c>
-      <c r="R32" s="4">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="9"/>
-        <v>10.5</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="U32" s="4">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-      <c r="V32" s="4">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
